--- a/data/income_statement/2digits/size/93_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/93_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>93-Sports activities and amusement and recreation activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>93-Sports activities and amusement and recreation activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,305 +841,345 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>261421.29277</v>
+        <v>290870.4042099999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>219813.62976</v>
+        <v>227373.44532</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>246168.06029</v>
+        <v>282535.7047</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>345783.41307</v>
+        <v>401418.3113300001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>518146.16845</v>
+        <v>568443.36153</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>559445.33169</v>
+        <v>606078.807</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>651268.31828</v>
+        <v>732680.8582100001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>717578.7096599999</v>
+        <v>775754.9249400001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>857756.2798199999</v>
+        <v>937897.41629</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1106813.38314</v>
+        <v>1185450.06861</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1297717.22184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1335854.79652</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1125835.027</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>248148.60458</v>
+        <v>276126.8623400001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>205467.42714</v>
+        <v>213296.50322</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>235426.43148</v>
+        <v>270282.44284</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>328562.90692</v>
+        <v>377512.8186699999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>484502.90591</v>
+        <v>526939.45578</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>529724.2483999999</v>
+        <v>575521.9449100001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>598785.8284</v>
+        <v>681387.0465800001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>648415.63353</v>
+        <v>697545.52978</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>751649.1068099999</v>
+        <v>820562.8128900001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1012854.69045</v>
+        <v>1091541.93864</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1199230.74061</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1226389.55559</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1035548.675</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>4145.018059999999</v>
+        <v>4201.96066</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>1080.24706</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1882.31537</v>
+        <v>2713.42216</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>2261.3023</v>
+        <v>8752.73784</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>8659.981390000001</v>
+        <v>17678.12906</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>8549.998469999999</v>
+        <v>10340.04728</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>17501.62237</v>
+        <v>16631.49069</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>37457.09254999999</v>
+        <v>41028.40677</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>75347.27333</v>
+        <v>75419.19557000001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>48842.82027</v>
+        <v>48377.46711</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>51909.98382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>65579.74906</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>50191.564</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>9127.670129999999</v>
+        <v>10541.58121</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>13265.95556</v>
+        <v>12996.69504</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>8859.31344</v>
+        <v>9539.839699999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>14959.20385</v>
+        <v>15152.75482</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>24983.28115</v>
+        <v>23825.77669</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>21171.08482</v>
+        <v>20216.81481</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>34980.86751</v>
+        <v>34662.32094</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>31705.98358</v>
+        <v>37180.98839</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>30759.89968</v>
+        <v>41915.40783</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>45115.87242</v>
+        <v>45530.66286</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>46576.49741</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>43885.49187000001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>40094.788</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>401.92239</v>
+        <v>1110.29165</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>825.9397299999999</v>
+        <v>709.3325299999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1352.31462</v>
+        <v>1517.44682</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1473.82579</v>
+        <v>2193.19353</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2426.67695</v>
+        <v>2468.8839</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>4081.68488</v>
+        <v>4194.809969999999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2050.01324</v>
+        <v>4137.401589999999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>2298.72219</v>
+        <v>2614.64729</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>3696.823</v>
+        <v>2764.24046</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>4905.809099999999</v>
+        <v>5064.29709</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>4870.494890000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>7199.038430000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>21664.317</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>382.80064</v>
+        <v>1102.2495</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>508.70631</v>
+        <v>395.29192</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1266.81612</v>
+        <v>1432.6382</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1433.11824</v>
+        <v>1716.38981</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1027.02183</v>
+        <v>1070.46578</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>2962.17594</v>
+        <v>3100.073159999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1732.34989</v>
+        <v>3868.05645</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>2187.86128</v>
+        <v>2504.08438</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>3557.63926</v>
+        <v>2247.57445</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>3735.57089</v>
+        <v>3894.05888</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>4724.679349999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>5364.61968</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>15304.518</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>17.85971</v>
+        <v>6.78011</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>313.2341</v>
+        <v>312.32061</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>84.65351</v>
+        <v>83.96363000000001</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>35.21805999999999</v>
+        <v>470.5819</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1079.16027</v>
+        <v>1077.92327</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>760.25825</v>
+        <v>759.1202500000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>254.90434</v>
+        <v>206.58613</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>72.26061999999999</v>
+        <v>71.96262</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>23.02028</v>
+        <v>356.7441000000001</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>771.72421</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>84.3903</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1772.99351</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>5403.813</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1.26204</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>3.99932</v>
+        <v>1.72</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>0.84499</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>5.48949</v>
+        <v>6.22182</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>320.49485</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>359.25069</v>
+        <v>335.61656</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>62.75901</v>
@@ -1247,7 +1188,7 @@
         <v>38.60029</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>116.16346</v>
+        <v>159.92191</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>398.514</v>
@@ -1255,206 +1196,236 @@
       <c r="M12" s="48" t="n">
         <v>61.42524</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>955.986</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>261019.37038</v>
+        <v>289760.11256</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>218987.69003</v>
+        <v>226664.11279</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>244815.74567</v>
+        <v>281018.25788</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>344309.58728</v>
+        <v>399225.1178</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>515719.4915</v>
+        <v>565974.47763</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>555363.6468100001</v>
+        <v>601883.99703</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>649218.30504</v>
+        <v>728543.45662</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>715279.9874700001</v>
+        <v>773140.2776499999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>854059.45682</v>
+        <v>935133.17583</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1101907.57404</v>
+        <v>1180385.77152</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1292846.72695</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1328655.75809</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1104170.71</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>218989.1657</v>
+        <v>252537.38169</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>168384.91377</v>
+        <v>174756.94171</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>189283.58475</v>
+        <v>219390.75315</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>271051.09589</v>
+        <v>316636.67803</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>358638.23787</v>
+        <v>396379.93605</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>413447.93907</v>
+        <v>434308.21262</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>498897.4556</v>
+        <v>544893.68188</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>549094.59</v>
+        <v>579437.9129400001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>669863.46665</v>
+        <v>717242.6637899999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>843269.7212799999</v>
+        <v>902353.4933399999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1035112.06736</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1060230.57509</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>932035.001</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>5050.546359999999</v>
+        <v>5881.81198</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>10313.23019</v>
+        <v>11944.41761</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>8961.255499999999</v>
+        <v>8916.214780000002</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>15601.17303</v>
+        <v>20754.27603</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>12541.10112</v>
+        <v>19613.98027</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>22232.30305</v>
+        <v>23564.7071</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>28183.04932</v>
+        <v>30060.55587</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>45731.98884999999</v>
+        <v>51737.21364</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>44793.14901000001</v>
+        <v>53896.60101999999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>82108.76882</v>
+        <v>79796.94093000001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>80399.11825999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>80149.50207999999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>75581.288</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>117022.96474</v>
+        <v>118119.82774</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>29381.97198</v>
+        <v>27929.76428</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>31821.3632</v>
+        <v>33261.50812</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>42296.38335</v>
+        <v>47154.152</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>51084.01227</v>
+        <v>54049.35952</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>73568.58127</v>
+        <v>71821.12147</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>115563.00492</v>
+        <v>121657.88438</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>90506.14749</v>
+        <v>86457.34934</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>147536.64539</v>
+        <v>142573.769</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>140556.50029</v>
+        <v>126680.31019</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>180885.41487</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>178428.54604</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>218980.459</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>96119.85378</v>
+        <v>127739.94115</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>127863.96724</v>
+        <v>134057.01546</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>147465.54325</v>
+        <v>175494.27075</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>210710.91824</v>
+        <v>246091.60238</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>291723.40007</v>
+        <v>319053.11001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>314836.84084</v>
+        <v>336112.17014</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>351037.75811</v>
+        <v>389623.34294</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>408344.73974</v>
+        <v>436234.09522</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>474053.7914</v>
+        <v>516352.3717</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>605193.3472899999</v>
+        <v>679300.51331</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>768305.44273</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>797720.45412</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>628651.794</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>795.80082</v>
@@ -1463,115 +1434,130 @@
         <v>825.74436</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1035.4228</v>
+        <v>1718.7595</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>2442.62127</v>
+        <v>2636.64762</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>3289.72441</v>
+        <v>3663.48625</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>2810.21391</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>4113.64325</v>
+        <v>3551.89869</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>4511.71392</v>
+        <v>5009.25474</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>3479.88085</v>
+        <v>4419.922070000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>15411.10488</v>
+        <v>16575.72891</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>5522.0915</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>3932.07285</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>8821.459999999999</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>42030.20468</v>
+        <v>37222.73087</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>50602.77626000001</v>
+        <v>51907.17108</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>55532.16092</v>
+        <v>61627.50473</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>73258.49139</v>
+        <v>82588.43977</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>157081.25363</v>
+        <v>169594.54158</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>141915.70774</v>
+        <v>167575.78441</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>150320.84944</v>
+        <v>183649.77474</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>166185.39747</v>
+        <v>193702.36471</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>184195.99017</v>
+        <v>217890.51204</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>258637.85276</v>
+        <v>278032.27818</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>257734.65959</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>268425.183</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>172135.709</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>63089.08804</v>
+        <v>100569.62352</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>70647.32067</v>
+        <v>88859.75805</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>77743.50047</v>
+        <v>116250.4073</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>93739.02365999999</v>
+        <v>161075.58718</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>192567.33216</v>
+        <v>237518.85245</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>169535.96402</v>
+        <v>193177.47174</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>190475.96285</v>
+        <v>277786.18477</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>222747.29462</v>
+        <v>259098.40214</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>244496.99944</v>
+        <v>290263.24576</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>296421.29037</v>
+        <v>378699.27582</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>311889.81954</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>362546.67818</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>317695.652</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1583,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>170.27025</v>
+        <v>83.05085000000001</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>6.048430000000001</v>
@@ -1598,175 +1584,200 @@
         <v>292.9903</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>3.20236</v>
+        <v>1980.59828</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>1.57541</v>
+        <v>15127.08192</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>14529.32249</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>871.525</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>2173.75849</v>
+        <v>4211.28234</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>3744.46819</v>
+        <v>3581.20314</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>4531.942889999999</v>
+        <v>6054.38843</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>7544.822470000001</v>
+        <v>8659.676059999998</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>14618.3672</v>
+        <v>15518.29319</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>13746.19594</v>
+        <v>14614.57252</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>17945.96866</v>
+        <v>18282.10724</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>22366.44199</v>
+        <v>23003.45292</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>24367.12933</v>
+        <v>25882.01352</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>28826.80484</v>
+        <v>27428.44762</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>27340.95885</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>25807.23308</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>24575.094</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>60915.32954999999</v>
+        <v>96358.34117999999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>66902.62321999999</v>
+        <v>85278.32565</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>73211.55757999999</v>
+        <v>110196.01887</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>86023.93093999999</v>
+        <v>152332.86027</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>177942.91653</v>
+        <v>221994.51083</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>155785.83214</v>
+        <v>178558.96328</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>172489.8252</v>
+        <v>259463.90854</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>200087.86233</v>
+        <v>235801.95892</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>220126.66775</v>
+        <v>262400.63396</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>267592.91012</v>
+        <v>336143.74628</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>284545.66069</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>322210.12261</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>292249.033</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-21058.88336</v>
+        <v>-63346.89265</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-20044.54441</v>
+        <v>-36952.58697</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-22211.33955</v>
+        <v>-54622.90257000001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-20480.53227</v>
+        <v>-78487.14740999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-35486.07853</v>
+        <v>-67924.31087</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-27620.25628</v>
+        <v>-25601.68733</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-40155.11341000001</v>
+        <v>-94136.41003</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-56561.89715</v>
+        <v>-65396.03743</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-60301.00927</v>
+        <v>-72372.73372</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-37783.43761</v>
+        <v>-100666.99764</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-54155.15994999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-94121.49518000001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-145559.943</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>11016.53644</v>
+        <v>47790.55261999999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>10710.35892</v>
+        <v>36754.64174</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>13071.72115</v>
+        <v>56110.89642</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>10460.409</v>
+        <v>50902.67238</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>22056.62662</v>
+        <v>90984.93062999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>48876.49673</v>
+        <v>29417.95802</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>19845.44372</v>
+        <v>54914.09861</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>20956.82476</v>
+        <v>42822.92403</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>27636.78439</v>
+        <v>55908.50275</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>81440.69385</v>
+        <v>223639.80346</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>70090.22762999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>102532.36952</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>146861.542</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0.43436</v>
@@ -1781,31 +1792,36 @@
         <v>99.14506</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>434.74736</v>
+        <v>39.65801999999999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>218.11912</v>
+        <v>319.8407</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>194.38592</v>
+        <v>440.93338</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>0</v>
+        <v>439.28831</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>198.98999</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>734.7327700000001</v>
+        <v>128.44401</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>425.9716</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>14.06016</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1010.47708</v>
@@ -1820,10 +1836,10 @@
         <v>0</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>0</v>
+        <v>16001.45088</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0</v>
+        <v>2892.1198</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>0</v>
@@ -1840,206 +1856,236 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1248.70526</v>
+        <v>2336.68491</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1068.81998</v>
+        <v>2039.1682</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>2762.01088</v>
+        <v>2893.02881</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>2894.11494</v>
+        <v>6239.675480000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2352.84865</v>
+        <v>6608.30063</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>4513.389740000001</v>
+        <v>4800.237480000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2288.50909</v>
+        <v>6346.008610000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2908.9815</v>
+        <v>4236.95042</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>3808.310559999999</v>
+        <v>7040.5872</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>10758.02809</v>
+        <v>19358.32419</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>11346.17429</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>19883.33712</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>14956.114</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>5.46216</v>
+        <v>71.65566</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>0</v>
+        <v>31.52285</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>0.0495</v>
+        <v>41.87964</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>723.76678</v>
+        <v>760.86814</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>31.8048</v>
+        <v>74.16714</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>513.87463</v>
+        <v>542.8245400000001</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>76.74745</v>
+        <v>851.3879499999999</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>7.21291</v>
+        <v>39.57369</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>83.63001</v>
+        <v>70.75716</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>47.00576</v>
+        <v>50.18674</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>244.0574</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>277.43621</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>159.453</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>7.27</v>
+        <v>25737.51583</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>29.464</v>
+        <v>25727.22698</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>113.32957</v>
+        <v>128.79378</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>18.47012</v>
+        <v>110.00916</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>53.93931</v>
+        <v>226.72558</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>311.17287</v>
+        <v>316.58703</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>565.58062</v>
+        <v>816.1277699999999</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>564.68625</v>
+        <v>594.90887</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1066.98363</v>
+        <v>1190.97633</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>677.5271799999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>556.7024399999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1603.991</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>29.74259</v>
+        <v>25.19922</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>31.94138</v>
+        <v>36.75103</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>60.36038</v>
+        <v>726.2203900000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>138.11478</v>
+        <v>2672.63312</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>96.99464999999999</v>
+        <v>31180.38473</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>4086.69089</v>
+        <v>7179.344349999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>236.00691</v>
+        <v>4300.695549999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>241.12762</v>
+        <v>282.61414</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>467.56932</v>
+        <v>443.63514</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>6504.29983</v>
+        <v>4699.60394</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>10515.21593</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1804.12774</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>11721.864</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1367.11894</v>
+        <v>10728.43864</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1358.54911</v>
+        <v>26791.70974</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1076.41543</v>
+        <v>11934.91276</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1989.19239</v>
+        <v>19441.18287</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>4052.68628</v>
+        <v>12764.2546</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>26077.81296</v>
+        <v>8893.93658</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>7735.94034</v>
+        <v>30515.5108</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>7485.016540000001</v>
+        <v>25619.13383</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>5881.30862</v>
+        <v>25871.34038</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>40953.47225</v>
+        <v>114519.45709</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>22561.51288</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>40130.33182</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>83157.458</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2060,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>67.60056</v>
+        <v>0</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1161.541</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2111,169 +2162,194 @@
         <v>0</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>232.82997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>7347.326050000001</v>
+        <v>7880.14692</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>8184.26335</v>
+        <v>7788.704819999999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>9138.2801</v>
+        <v>14782.48698</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>4502.74548</v>
+        <v>21560.37393</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>15067.68568</v>
+        <v>24205.31639</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>13412.67008</v>
+        <v>4562.92899</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>8935.08058</v>
+        <v>12142.97529</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>9745.637969999998</v>
+        <v>11385.96827</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>16629.34914</v>
+        <v>21685.34351</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>21376.17152</v>
+        <v>83692.81116</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>24086.93838</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>39866.37403</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>34101.121</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>2701.67716</v>
+        <v>12378.98349</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>2552.91477</v>
+        <v>3220.65295</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2893.58762</v>
+        <v>13245.24895</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>3745.01239</v>
+        <v>22458.89571</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>6365.70841</v>
+        <v>21241.57751</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>35833.1638</v>
+        <v>24041.43126</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>12444.96928</v>
+        <v>41505.91684999999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>10466.1006</v>
+        <v>47220.5609</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>10764.90889</v>
+        <v>53026.69511</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>65914.03029000001</v>
+        <v>154769.20071</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>27422.39557</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>101314.82175</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>141772.072</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>525.87063</v>
+        <v>519.7007599999999</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>564.82999</v>
+        <v>566.61421</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>203.49693</v>
+        <v>204.09105</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1225.78947</v>
+        <v>1174.50652</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>847.0983100000001</v>
+        <v>918.2425500000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>432.05524</v>
+        <v>446.42088</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>368.0007199999999</v>
+        <v>513.7388599999999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>350.05062</v>
+        <v>357.37473</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>713.36948</v>
+        <v>797.2411800000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>836.14066</v>
+        <v>810.57502</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>645.15404</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>625.62577</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>546.405</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>309.71812</v>
+        <v>348.19192</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>307.50185</v>
+        <v>308.34807</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>299.9601</v>
+        <v>323.7286</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>301.7216999999999</v>
+        <v>500.99643</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>93.14634</v>
+        <v>446.67434</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>354.899</v>
+        <v>778.1459199999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>481.91501</v>
+        <v>1206.51011</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>2209.35375</v>
+        <v>3571.36405</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>2213.10617</v>
+        <v>3101.51586</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>5187.06243</v>
+        <v>6617.82861</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>2031.58731</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>2258.34118</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>2488.531</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>33.20999</v>
@@ -2285,73 +2361,83 @@
         <v>0.01164</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>14.02883</v>
+        <v>1.36764</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>2.69506</v>
+        <v>2.48126</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>0.06346</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>0.05589</v>
+        <v>2081.96066</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>24.01617</v>
+        <v>2.97324</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>3.44068</v>
+        <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>13.22305</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>409.59</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1364.99124</v>
+        <v>10613.17527</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1274.16824</v>
+        <v>1786.50552</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>2185.17755</v>
+        <v>12068.60127</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1145.90729</v>
+        <v>18772.28933</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>4904.19033</v>
+        <v>18861.93887</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>26667.80228</v>
+        <v>17739.45481</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>9421.05467</v>
+        <v>34723.16531</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>7198.58917</v>
+        <v>42089.35461</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>6195.95586</v>
+        <v>45823.00027</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>57865.74983</v>
+        <v>145374.37799</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>22779.65157</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>96100.82831</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>134362.576</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,20 +2472,25 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>0.00063</v>
+        <v>0</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>0.01438</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>0.00184</v>
+        <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>0</v>
@@ -2414,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>0.5785</v>
+        <v>114.24398</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>0</v>
@@ -2425,374 +2516,424 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>467.8865499999999</v>
+        <v>864.7055499999999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>401.42292</v>
+        <v>554.19338</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>204.93956</v>
+        <v>648.8163900000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1057.5651</v>
+        <v>2009.73579</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>518.5783699999999</v>
+        <v>1012.24049</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>8335.484490000001</v>
+        <v>5034.48686</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>2173.94299</v>
+        <v>2980.54191</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>707.5285600000001</v>
+        <v>1088.22353</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1618.46121</v>
+        <v>3301.96456</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>2021.63669</v>
+        <v>1966.41909</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1952.7796</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>2330.02649</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>3964.97</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>4434.46892</v>
+        <v>18367.50539</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>4003.53289</v>
+        <v>43163.75805</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>6598.23136</v>
+        <v>64060.28184</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>8593.17657</v>
+        <v>22377.09432</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>11332.85117</v>
+        <v>75709.01725999999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>16731.87644</v>
+        <v>21716.76485</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>14784.33803</v>
+        <v>119634.10442</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>15822.77147</v>
+        <v>42186.38147</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>17944.34915</v>
+        <v>51984.1343</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>32261.69343</v>
+        <v>52958.98212000001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>34284.60978</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>51414.50662000001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>37698.824</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>4413.01887</v>
+        <v>18346.05534</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>3986.24433</v>
+        <v>5564.46269</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>6518.72809</v>
+        <v>15206.33553</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>8264.599200000001</v>
+        <v>18463.56684</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>10667.95736</v>
+        <v>22059.96043</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>16301.48955</v>
+        <v>19979.17083</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>14229.67171</v>
+        <v>25931.23988</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>15489.7551</v>
+        <v>40736.05211</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>17598.0539</v>
+        <v>49647.5429</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>30349.27206</v>
+        <v>49812.03238</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>33371.48517</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>47262.27096</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>32531.041</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>21.45005</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>17.28856</v>
+        <v>37599.29536</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>79.50327</v>
+        <v>48853.94630999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>328.57737</v>
+        <v>3913.52748</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>664.89381</v>
+        <v>53649.05683</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>430.38689</v>
+        <v>1737.59402</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>554.6663199999999</v>
+        <v>93702.86454000001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>333.01637</v>
+        <v>1450.32936</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>346.29525</v>
+        <v>2336.5914</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>1912.42137</v>
+        <v>3146.94974</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>913.12461</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>4152.23566</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>5167.783</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-17178.493</v>
+        <v>-46302.82891</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-15890.63315</v>
+        <v>-46582.35623</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-18631.43738</v>
+        <v>-75817.53693999999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-22358.31223</v>
+        <v>-72420.46506</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-31128.01149</v>
+        <v>-73889.97501000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-31308.79979</v>
+        <v>-41941.92541999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-47538.977</v>
+        <v>-200362.33269</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-61893.94446</v>
+        <v>-111980.05577</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-61373.48292</v>
+        <v>-121475.06038</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-54518.46748</v>
+        <v>-84755.37701000001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-45771.93767</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-144318.45403</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-178169.297</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>4102.5075</v>
+        <v>52524.25321</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>2934.71479</v>
+        <v>3081.74448</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>2533.38377</v>
+        <v>14714.58867</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>3941.85348</v>
+        <v>9034.516809999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>6829.22384</v>
+        <v>9586.0604</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>11080.97572</v>
+        <v>10093.65728</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>24939.25424</v>
+        <v>69284.93334999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>14977.3963</v>
+        <v>11992.49494</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>9263.818220000001</v>
+        <v>13880.24348</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>23083.12937</v>
+        <v>27675.63835</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>30763.75191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>41040.64417</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>16037.156</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>257.32162</v>
+        <v>42746.40547</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>563.11259</v>
+        <v>562.94308</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>9.671340000000001</v>
+        <v>10.85621</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>65.29917</v>
+        <v>113.74333</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>143.31611</v>
+        <v>158.06273</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>54.03236</v>
+        <v>59.15176</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>47.06767</v>
+        <v>512.92467</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>183.22109</v>
+        <v>203.32887</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>41.44130999999999</v>
+        <v>631.81757</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>136.92653</v>
+        <v>226.38996</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>599.4440500000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>533.27248</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>378.219</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>3845.18588</v>
+        <v>9777.847740000001</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>2371.6022</v>
+        <v>2518.8014</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>2523.71243</v>
+        <v>14703.73246</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>3876.55431</v>
+        <v>8920.77348</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>6685.907730000001</v>
+        <v>9427.997670000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>11026.94336</v>
+        <v>10034.50552</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>24892.18657</v>
+        <v>68772.00868000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>14794.17521</v>
+        <v>11789.16607</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>9222.376910000001</v>
+        <v>13248.42591</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>22946.20284</v>
+        <v>27449.24839</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>30164.30786</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>40507.37169</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>15658.937</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>2404.02475</v>
+        <v>60531.90253</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>2889.83623</v>
+        <v>3294.91584</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>12203.24822</v>
+        <v>22027.96759</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>3600.45703</v>
+        <v>5726.86038</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>7369.98808</v>
+        <v>9435.97623</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>15896.07453</v>
+        <v>20728.1036</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>10037.60453</v>
+        <v>17660.9055</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>23409.07499</v>
+        <v>36565.35172999999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>21934.82089</v>
+        <v>25106.21905</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>22158.33784</v>
+        <v>25753.611</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>16931.81051</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>19701.11913</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>18109.491</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>478.0032</v>
+        <v>250.53799</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>455.37104</v>
+        <v>851.73713</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>254.0171</v>
+        <v>1189.24049</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>391.5914</v>
+        <v>778.1464599999999</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>0</v>
@@ -2804,214 +2945,242 @@
         <v>114.69953</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>303.88371</v>
+        <v>6.05389</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>372.23649</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>18.90704</v>
+        <v>0</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>447.08226</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>424.00624</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>762.742</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>673.2715400000001</v>
+        <v>58040.05015</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>81.36434</v>
+        <v>59.59965999999999</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>402.01876</v>
+        <v>462.09329</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>250.47761</v>
+        <v>494.66066</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2063.7088</v>
+        <v>2123.15348</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2212.02966</v>
+        <v>2275.27473</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>2428.93989</v>
+        <v>2463.8479</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>314.3789599999999</v>
+        <v>272.742</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>2182.44706</v>
+        <v>2234.87523</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>601.8018099999999</v>
+        <v>542.0844499999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1166.2296</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>345.644</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>436.239</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>1252.75001</v>
+        <v>2241.31439</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>2353.10085</v>
+        <v>2383.57905</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>11547.21236</v>
+        <v>20376.63381</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>2958.38802</v>
+        <v>4454.05326</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>5306.279280000001</v>
+        <v>7312.82275</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>13570.46222</v>
+        <v>18339.24622</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>7493.96511</v>
+        <v>15082.35807</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>22790.81232</v>
+        <v>36286.55584</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>19380.13734</v>
+        <v>22499.10733</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>21537.62899</v>
+        <v>25211.52655</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>15318.49865</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>18931.46889</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>16910.51</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-15480.01025</v>
+        <v>-54310.47822999999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-15845.75459</v>
+        <v>-46795.52759000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-28301.30183</v>
+        <v>-83130.91585999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-22016.91578</v>
+        <v>-69112.80863</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-31668.77573</v>
+        <v>-73739.89084000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-36123.8986</v>
+        <v>-52576.37174</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-32637.32729</v>
+        <v>-148738.30484</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-70325.62315</v>
+        <v>-136552.91256</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-74044.48559</v>
+        <v>-132701.03595</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-53593.67595</v>
+        <v>-82833.34965999999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-31939.99627</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-122978.92899</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-180241.632</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1563.81387</v>
+        <v>1645.63928</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1451.56688</v>
+        <v>1190.5477</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>2504.35245</v>
+        <v>2483.22853</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>2749.87796</v>
+        <v>2914.38574</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>4192.48261</v>
+        <v>4149.0077</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>5450.070610000001</v>
+        <v>5383.82278</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>4790.22871</v>
+        <v>5995.38247</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>5478.260689999999</v>
+        <v>6131.91319</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>4337.199850000001</v>
+        <v>4994.80115</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>11208.98083</v>
+        <v>11360.07772</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>13441.39873</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>12961.08865</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>11512.892</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-17043.82412</v>
+        <v>-55956.11751</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-17297.32147</v>
+        <v>-47986.07529000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-30805.65428</v>
+        <v>-85614.14439</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-24766.79374</v>
+        <v>-72027.19437000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-35861.25833999999</v>
+        <v>-77888.89854000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-41573.96921</v>
+        <v>-57960.19452</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-37427.556</v>
+        <v>-154733.68731</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-75803.88384000001</v>
+        <v>-142684.82575</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-78381.68544</v>
+        <v>-137695.8371</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-64802.65678</v>
+        <v>-94193.42737999999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-45381.395</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-135940.01764</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-191754.524</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>478</v>
+        <v>394</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>536</v>
+        <v>415</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>601</v>
+        <v>446</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>684</v>
+        <v>494</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>525</v>
+        <v>458</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>472</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>